--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb3-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb3-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Efnb3</t>
   </si>
   <si>
     <t>Epha4</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
+    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,10 +546,10 @@
         <v>0.45995</v>
       </c>
       <c r="I2">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964018</v>
       </c>
       <c r="J2">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964017</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.839997333333334</v>
+        <v>8.540560666666666</v>
       </c>
       <c r="N2">
-        <v>23.519992</v>
+        <v>25.621682</v>
       </c>
       <c r="O2">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="P2">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="Q2">
-        <v>1.202002257822222</v>
+        <v>1.309410292877778</v>
       </c>
       <c r="R2">
-        <v>10.8180203204</v>
+        <v>11.7846926359</v>
       </c>
       <c r="S2">
-        <v>0.04391016816420103</v>
+        <v>0.04582283035059939</v>
       </c>
       <c r="T2">
-        <v>0.04391016816420103</v>
+        <v>0.04582283035059938</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,10 +608,10 @@
         <v>0.45995</v>
       </c>
       <c r="I3">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964018</v>
       </c>
       <c r="J3">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964017</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +626,10 @@
         <v>34.723655</v>
       </c>
       <c r="O3">
-        <v>0.5803178185796234</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="P3">
-        <v>0.5803178185796235</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="Q3">
         <v>1.774571679694445</v>
@@ -635,10 +638,10 @@
         <v>15.97114511725</v>
       </c>
       <c r="S3">
-        <v>0.06482661772698306</v>
+        <v>0.06210115917517602</v>
       </c>
       <c r="T3">
-        <v>0.06482661772698306</v>
+        <v>0.06210115917517602</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,40 +670,40 @@
         <v>0.45995</v>
       </c>
       <c r="I4">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964018</v>
       </c>
       <c r="J4">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964017</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.4858216666666667</v>
+        <v>0.026642</v>
       </c>
       <c r="N4">
-        <v>1.457465</v>
+        <v>0.079926</v>
       </c>
       <c r="O4">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="P4">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="Q4">
-        <v>0.07448455852777779</v>
+        <v>0.004084662633333334</v>
       </c>
       <c r="R4">
-        <v>0.6703610267500001</v>
+        <v>0.0367619637</v>
       </c>
       <c r="S4">
-        <v>0.002720984481773517</v>
+        <v>0.0001429428223565497</v>
       </c>
       <c r="T4">
-        <v>0.002720984481773516</v>
+        <v>0.0001429428223565497</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,40 +732,40 @@
         <v>0.45995</v>
       </c>
       <c r="I5">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964018</v>
       </c>
       <c r="J5">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964017</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.04482366666666667</v>
+        <v>0.391608</v>
       </c>
       <c r="N5">
-        <v>0.134471</v>
+        <v>1.174824</v>
       </c>
       <c r="O5">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="P5">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="Q5">
-        <v>0.006872215161111112</v>
+        <v>0.06004003320000001</v>
       </c>
       <c r="R5">
-        <v>0.06184993645</v>
+        <v>0.5403602988</v>
       </c>
       <c r="S5">
-        <v>0.0002510478839962308</v>
+        <v>0.002101101748269789</v>
       </c>
       <c r="T5">
-        <v>0.0002510478839962308</v>
+        <v>0.002101101748269789</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +773,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +794,10 @@
         <v>2.867988</v>
       </c>
       <c r="I6">
-        <v>0.6965529954454279</v>
+        <v>0.6869455370628789</v>
       </c>
       <c r="J6">
-        <v>0.6965529954454278</v>
+        <v>0.6869455370628788</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.839997333333334</v>
+        <v>8.540560666666666</v>
       </c>
       <c r="N6">
-        <v>23.519992</v>
+        <v>25.621682</v>
       </c>
       <c r="O6">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="P6">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="Q6">
-        <v>7.495006090677335</v>
+        <v>8.164741835090668</v>
       </c>
       <c r="R6">
-        <v>67.45505481609601</v>
+        <v>73.48267651581601</v>
       </c>
       <c r="S6">
-        <v>0.2737989680898154</v>
+        <v>0.2857252474650611</v>
       </c>
       <c r="T6">
-        <v>0.2737989680898154</v>
+        <v>0.2857252474650611</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +856,10 @@
         <v>2.867988</v>
       </c>
       <c r="I7">
-        <v>0.6965529954454279</v>
+        <v>0.6869455370628789</v>
       </c>
       <c r="J7">
-        <v>0.6965529954454278</v>
+        <v>0.6869455370628788</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +874,10 @@
         <v>34.723655</v>
       </c>
       <c r="O7">
-        <v>0.5803178185796234</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="P7">
-        <v>0.5803178185796235</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="Q7">
         <v>11.06522509512667</v>
@@ -883,10 +886,10 @@
         <v>99.58702585614002</v>
       </c>
       <c r="S7">
-        <v>0.4042221148419931</v>
+        <v>0.3872276971420693</v>
       </c>
       <c r="T7">
-        <v>0.4042221148419931</v>
+        <v>0.3872276971420692</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,40 +918,40 @@
         <v>2.867988</v>
       </c>
       <c r="I8">
-        <v>0.6965529954454279</v>
+        <v>0.6869455370628789</v>
       </c>
       <c r="J8">
-        <v>0.6965529954454278</v>
+        <v>0.6869455370628788</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.4858216666666667</v>
+        <v>0.026642</v>
       </c>
       <c r="N8">
-        <v>1.457465</v>
+        <v>0.079926</v>
       </c>
       <c r="O8">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="P8">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="Q8">
-        <v>0.4644435700466668</v>
+        <v>0.025469645432</v>
       </c>
       <c r="R8">
-        <v>4.179992130420001</v>
+        <v>0.229226808888</v>
       </c>
       <c r="S8">
-        <v>0.01696651993023734</v>
+        <v>0.0008913105755075907</v>
       </c>
       <c r="T8">
-        <v>0.01696651993023734</v>
+        <v>0.0008913105755075906</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,40 +980,40 @@
         <v>2.867988</v>
       </c>
       <c r="I9">
-        <v>0.6965529954454279</v>
+        <v>0.6869455370628789</v>
       </c>
       <c r="J9">
-        <v>0.6965529954454278</v>
+        <v>0.6869455370628788</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.04482366666666667</v>
+        <v>0.391608</v>
       </c>
       <c r="N9">
-        <v>0.134471</v>
+        <v>1.174824</v>
       </c>
       <c r="O9">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="P9">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="Q9">
-        <v>0.04285124603866668</v>
+        <v>0.3743756815680001</v>
       </c>
       <c r="R9">
-        <v>0.3856612143480001</v>
+        <v>3.369381134112001</v>
       </c>
       <c r="S9">
-        <v>0.001565392583382068</v>
+        <v>0.01310128188024084</v>
       </c>
       <c r="T9">
-        <v>0.001565392583382068</v>
+        <v>0.01310128188024084</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1021,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.2631543333333333</v>
+        <v>0.1265133333333333</v>
       </c>
       <c r="H10">
-        <v>0.789463</v>
+        <v>0.37954</v>
       </c>
       <c r="I10">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="J10">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.839997333333334</v>
+        <v>8.540560666666666</v>
       </c>
       <c r="N10">
-        <v>23.519992</v>
+        <v>25.621682</v>
       </c>
       <c r="O10">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="P10">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="Q10">
-        <v>2.063129271588445</v>
+        <v>1.080494798475556</v>
       </c>
       <c r="R10">
-        <v>18.568163444296</v>
+        <v>9.72445318628</v>
       </c>
       <c r="S10">
-        <v>0.07536787278924803</v>
+        <v>0.03781192962553863</v>
       </c>
       <c r="T10">
-        <v>0.07536787278924803</v>
+        <v>0.03781192962553863</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1083,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.2631543333333333</v>
+        <v>0.1265133333333333</v>
       </c>
       <c r="H11">
-        <v>0.789463</v>
+        <v>0.37954</v>
       </c>
       <c r="I11">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="J11">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1122,22 @@
         <v>34.723655</v>
       </c>
       <c r="O11">
-        <v>0.5803178185796234</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="P11">
-        <v>0.5803178185796235</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="Q11">
-        <v>3.045893427473889</v>
+        <v>1.464335113188889</v>
       </c>
       <c r="R11">
-        <v>27.413040847265</v>
+        <v>13.1790160187</v>
       </c>
       <c r="S11">
-        <v>0.1112690860106473</v>
+        <v>0.05124442646667313</v>
       </c>
       <c r="T11">
-        <v>0.1112690860106473</v>
+        <v>0.05124442646667313</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1157,46 +1160,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.2631543333333333</v>
+        <v>0.1265133333333333</v>
       </c>
       <c r="H12">
-        <v>0.789463</v>
+        <v>0.37954</v>
       </c>
       <c r="I12">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="J12">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.4858216666666667</v>
+        <v>0.026642</v>
       </c>
       <c r="N12">
-        <v>1.457465</v>
+        <v>0.079926</v>
       </c>
       <c r="O12">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="P12">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="Q12">
-        <v>0.1278460768105555</v>
+        <v>0.003370568226666667</v>
       </c>
       <c r="R12">
-        <v>1.150614691295</v>
+        <v>0.03033511404</v>
       </c>
       <c r="S12">
-        <v>0.004670326278800664</v>
+        <v>0.0001179530792416673</v>
       </c>
       <c r="T12">
-        <v>0.004670326278800664</v>
+        <v>0.0001179530792416673</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1219,46 +1222,294 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.2631543333333333</v>
+        <v>0.1265133333333333</v>
       </c>
       <c r="H13">
-        <v>0.789463</v>
+        <v>0.37954</v>
       </c>
       <c r="I13">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="J13">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.04482366666666667</v>
+        <v>0.391608</v>
       </c>
       <c r="N13">
-        <v>0.134471</v>
+        <v>1.174824</v>
       </c>
       <c r="O13">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="P13">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="Q13">
-        <v>0.01179554211922222</v>
+        <v>0.04954363344000001</v>
       </c>
       <c r="R13">
-        <v>0.106159879073</v>
+        <v>0.44589270096</v>
       </c>
       <c r="S13">
-        <v>0.0004309012189223097</v>
+        <v>0.001733780101181249</v>
       </c>
       <c r="T13">
-        <v>0.0004309012189223097</v>
+        <v>0.001733780101181249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.155836</v>
+      </c>
+      <c r="H14">
+        <v>0.467508</v>
+      </c>
+      <c r="I14">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="J14">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.540560666666666</v>
+      </c>
+      <c r="N14">
+        <v>25.621682</v>
+      </c>
+      <c r="O14">
+        <v>0.4159358086620884</v>
+      </c>
+      <c r="P14">
+        <v>0.4159358086620884</v>
+      </c>
+      <c r="Q14">
+        <v>1.330926812050667</v>
+      </c>
+      <c r="R14">
+        <v>11.978341308456</v>
+      </c>
+      <c r="S14">
+        <v>0.04657580122088927</v>
+      </c>
+      <c r="T14">
+        <v>0.04657580122088927</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.155836</v>
+      </c>
+      <c r="H15">
+        <v>0.467508</v>
+      </c>
+      <c r="I15">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="J15">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>11.57455166666667</v>
+      </c>
+      <c r="N15">
+        <v>34.723655</v>
+      </c>
+      <c r="O15">
+        <v>0.563694901924408</v>
+      </c>
+      <c r="P15">
+        <v>0.563694901924408</v>
+      </c>
+      <c r="Q15">
+        <v>1.803731833526667</v>
+      </c>
+      <c r="R15">
+        <v>16.23358650174</v>
+      </c>
+      <c r="S15">
+        <v>0.0631216191404896</v>
+      </c>
+      <c r="T15">
+        <v>0.06312161914048958</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.155836</v>
+      </c>
+      <c r="H16">
+        <v>0.467508</v>
+      </c>
+      <c r="I16">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="J16">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.026642</v>
+      </c>
+      <c r="N16">
+        <v>0.079926</v>
+      </c>
+      <c r="O16">
+        <v>0.001297498167494471</v>
+      </c>
+      <c r="P16">
+        <v>0.001297498167494471</v>
+      </c>
+      <c r="Q16">
+        <v>0.004151782712</v>
+      </c>
+      <c r="R16">
+        <v>0.037366044408</v>
+      </c>
+      <c r="S16">
+        <v>0.0001452916903886636</v>
+      </c>
+      <c r="T16">
+        <v>0.0001452916903886636</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.155836</v>
+      </c>
+      <c r="H17">
+        <v>0.467508</v>
+      </c>
+      <c r="I17">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="J17">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.391608</v>
+      </c>
+      <c r="N17">
+        <v>1.174824</v>
+      </c>
+      <c r="O17">
+        <v>0.01907179124600912</v>
+      </c>
+      <c r="P17">
+        <v>0.01907179124600912</v>
+      </c>
+      <c r="Q17">
+        <v>0.061026624288</v>
+      </c>
+      <c r="R17">
+        <v>0.549239618592</v>
+      </c>
+      <c r="S17">
+        <v>0.002135627516317235</v>
+      </c>
+      <c r="T17">
+        <v>0.002135627516317235</v>
       </c>
     </row>
   </sheetData>
